--- a/配置表/Z职业描述配置表.xlsx
+++ b/配置表/Z职业描述配置表.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="25440" windowHeight="15495"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="职业描述表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,17 +19,16 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0:新手
 1:战士
 2:枪械师
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>RoleJobDescriptions</t>
   </si>
@@ -71,6 +65,12 @@
     <t>头像</t>
   </si>
   <si>
+    <t>转头速度</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
     <t>基本攻击技能</t>
   </si>
   <si>
@@ -83,6 +83,9 @@
     <t>模型名称</t>
   </si>
   <si>
+    <t>默认AI</t>
+  </si>
+  <si>
     <t>默认装备wardrobe</t>
   </si>
   <si>
@@ -107,6 +110,12 @@
     <t>icon</t>
   </si>
   <si>
+    <t>rotateSpeed</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
     <t>baseSkill</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
     <t>ModelName</t>
   </si>
   <si>
+    <t>AITemplate</t>
+  </si>
+  <si>
     <t>DefaultWardrobe</t>
   </si>
   <si>
@@ -146,52 +158,13 @@
     <t>HeadZhanshi</t>
   </si>
   <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">战士拥有较高的血量和物理防御,擅长近身攻击&lt;br&gt;剑法:具有极高的爆发力&lt;br&gt;剑气:隔位攻击无视防御  </t>
-  </si>
-  <si>
-    <t>TagQiangshou</t>
-  </si>
-  <si>
-    <t>HeadQiangshou</t>
-  </si>
-  <si>
-    <t>枪械师</t>
-  </si>
-  <si>
-    <t>枪械师拥有最远的攻击距离,持续的物理伤害输出&lt;br&gt;箭术:擅长远程射击 &lt;br&gt;一次探险让他意识到了自己与生俱来的魔法威力&lt;br&gt;在探索恕瑞玛沙漠的金字塔时,他发现了一件拥有无尽能量的挂饰</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>TagCike</t>
-  </si>
-  <si>
-    <t>HeadCike</t>
-  </si>
-  <si>
-    <t>潜杀者</t>
-  </si>
-  <si>
-    <t>潜杀者拥有极高的物理爆发,杀人于无形&lt;br&gt;刺客艺术:隐身于暗处随时致命敌人&lt;br&gt;自从圣战以后,为了人类世界[米德加尔特],刺客要不断的杀戮来维持世界的平衡&lt;br&gt;因为人类总在一方强大之后侵犯别的国家&lt;br&gt;不过自从LOKI因为解决魔王梦罗克而没能及时赶回刺客工会后&lt;br&gt;刺客团就在SAKARY的手下永远消失了</t>
-  </si>
-  <si>
-    <t>转头速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotateSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>player/</t>
     </r>
     <r>
@@ -199,30 +172,78 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tank1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankAIController</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">战士拥有较高的血量和物理防御,擅长近身攻击&lt;br&gt;剑法:具有极高的爆发力&lt;br&gt;剑气:隔位攻击无视防御  </t>
+  </si>
+  <si>
+    <t>TagQiangshou</t>
+  </si>
+  <si>
+    <t>HeadQiangshou</t>
   </si>
   <si>
     <t>player/tank1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>player/tank1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械师</t>
+  </si>
+  <si>
+    <t>枪械师拥有最远的攻击距离,持续的物理伤害输出&lt;br&gt;箭术:擅长远程射击 &lt;br&gt;一次探险让他意识到了自己与生俱来的魔法威力&lt;br&gt;在探索恕瑞玛沙漠的金字塔时,他发现了一件拥有无尽能量的挂饰</t>
+  </si>
+  <si>
+    <t>TagCike</t>
+  </si>
+  <si>
+    <t>HeadCike</t>
+  </si>
+  <si>
+    <t>潜杀者</t>
+  </si>
+  <si>
+    <t>潜杀者拥有极高的物理爆发,杀人于无形&lt;br&gt;刺客艺术:隐身于暗处随时致命敌人&lt;br&gt;自从圣战以后,为了人类世界[米德加尔特],刺客要不断的杀戮来维持世界的平衡&lt;br&gt;因为人类总在一方强大之后侵犯别的国家&lt;br&gt;不过自从LOKI因为解决魔王梦罗克而没能及时赶回刺客工会后&lt;br&gt;刺客团就在SAKARY的手下永远消失了</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>player/Entity_Allycra</t>
+  </si>
+  <si>
+    <t>MobaPlayerAI</t>
+  </si>
+  <si>
+    <t>阿狸</t>
+  </si>
+  <si>
+    <t>测试英雄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -233,31 +254,161 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +439,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -312,9 +649,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,26 +929,65 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -381,7 +999,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -419,71 +1037,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,30 +1319,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="27" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="255.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="15.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="255.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -732,12 +1351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:16">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -754,252 +1373,325 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16">
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:16">
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16">
       <c r="B7" s="6"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="7">
+        <v>800</v>
+      </c>
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>33</v>
+      <c r="L7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16">
       <c r="B8" s="6"/>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
       </c>
       <c r="H8" s="7">
+        <v>800</v>
+      </c>
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>15</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>37</v>
+      <c r="L8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="9" spans="2:16">
+      <c r="B9" s="6"/>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>5</v>
       </c>
       <c r="H9" s="7">
+        <v>800</v>
+      </c>
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>15</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>42</v>
+      <c r="L9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:16">
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>800</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/配置表/Z职业描述配置表.xlsx
+++ b/配置表/Z职业描述配置表.xlsx
@@ -1324,7 +1324,7 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/配置表/Z职业描述配置表.xlsx
+++ b/配置表/Z职业描述配置表.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>RoleJobDescriptions</t>
   </si>
@@ -152,66 +152,22 @@
     <t>SERVER</t>
   </si>
   <si>
-    <t>TagZhanshi</t>
+    <t>SheShou</t>
   </si>
   <si>
     <t>HeadZhanshi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>player/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tank1</t>
-    </r>
-  </si>
-  <si>
-    <t>TankAIController</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t xml:space="preserve">战士拥有较高的血量和物理防御,擅长近身攻击&lt;br&gt;剑法:具有极高的爆发力&lt;br&gt;剑气:隔位攻击无视防御  </t>
-  </si>
-  <si>
-    <t>TagQiangshou</t>
-  </si>
-  <si>
-    <t>HeadQiangshou</t>
-  </si>
-  <si>
-    <t>player/tank1</t>
-  </si>
-  <si>
-    <t>枪械师</t>
-  </si>
-  <si>
-    <t>枪械师拥有最远的攻击距离,持续的物理伤害输出&lt;br&gt;箭术:擅长远程射击 &lt;br&gt;一次探险让他意识到了自己与生俱来的魔法威力&lt;br&gt;在探索恕瑞玛沙漠的金字塔时,他发现了一件拥有无尽能量的挂饰</t>
-  </si>
-  <si>
-    <t>TagCike</t>
-  </si>
-  <si>
-    <t>HeadCike</t>
-  </si>
-  <si>
-    <t>潜杀者</t>
-  </si>
-  <si>
-    <t>潜杀者拥有极高的物理爆发,杀人于无形&lt;br&gt;刺客艺术:隐身于暗处随时致命敌人&lt;br&gt;自从圣战以后,为了人类世界[米德加尔特],刺客要不断的杀戮来维持世界的平衡&lt;br&gt;因为人类总在一方强大之后侵犯别的国家&lt;br&gt;不过自从LOKI因为解决魔王梦罗克而没能及时赶回刺客工会后&lt;br&gt;刺客团就在SAKARY的手下永远消失了</t>
+    <t>player/Entity_GalileiClient</t>
+  </si>
+  <si>
+    <t>MobaPlayerAI</t>
+  </si>
+  <si>
+    <t>伽利略</t>
+  </si>
+  <si>
+    <t>测试射手</t>
   </si>
   <si>
     <t>END</t>
@@ -221,9 +177,6 @@
   </si>
   <si>
     <t>player/Entity_Allycra</t>
-  </si>
-  <si>
-    <t>MobaPlayerAI</t>
   </si>
   <si>
     <t>阿狸</t>
@@ -237,11 +190,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -258,6 +211,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -265,43 +247,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,57 +345,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,37 +360,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -441,31 +394,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,151 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,26 +606,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,16 +639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,31 +669,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +708,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,133 +720,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,7 +952,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1321,13 +1274,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:P10"/>
+  <dimension ref="B1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -1339,7 +1292,7 @@
     <col min="10" max="11" width="10.625" style="1" customWidth="1"/>
     <col min="12" max="14" width="27" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="255.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.725" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1563,14 +1516,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="6"/>
+    <row r="8" s="1" customFormat="1" spans="2:16">
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
@@ -1602,90 +1557,6 @@
       </c>
       <c r="P8" s="12" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7">
-        <v>800</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:16">
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>800</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
